--- a/data/long_razon/P24_3-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_3-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>208,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,83; 704,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 85,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 25,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 138,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 110,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 144,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,72; 230,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 62,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 52,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 61,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 62,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 63,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 98,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 74,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 28,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 61,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 48,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 26,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-20,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 222,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 59,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 28,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 34,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 128,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 63,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 73,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 54,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 23,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 139,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 34,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 13,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 57,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 59,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 39,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 71,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 34,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 18,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_3-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_3-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.119224648593301</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.09500991373185821</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2656286406120607</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5247778354715178</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.173988293037487</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.6236658513718073</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4519310937609434</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.6461448277669248</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1.566621158035873</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2743344216737168</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.08841382262271617</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5965631388339691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.0767205350011102</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5931646181208655</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5413198382684739</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2347319649164729</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.07163510486526949</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.174199275329209</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.02687912467852796</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.009979182625194236</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.3526812580652727</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2170460570048186</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1985490361393024</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.011977596300058</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.853918984166515</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.015999849974019</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2191767517051164</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.10735293522624</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.852523739386954</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.993246813924598</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.226940263185391</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.783974429676473</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>3.844116159999127</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.154373378361184</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.4656435323650945</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.425140173029295</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1756457165197617</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.0790970669930804</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1238871867943903</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4958917697786941</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.5903910365010441</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2070140990051006</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.09260694815611852</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.5946909041216841</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4052998165652721</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.06781625476001359</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.01046586370525376</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.5469324321267761</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3632509544668989</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5468058569352288</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2461327563647584</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.07333386069682123</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.04358822428402982</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2573046568402169</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4015246914497069</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.07773557962009565</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.02145375112904735</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2761249728502088</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2253422850182525</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.1192832422483115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.353536967234409</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6488581886186008</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6878608399438968</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.378753352502551</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.706550607355623</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8976964921298189</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.339990223897693</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.423087711534225</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.048753842010988</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.516977676624776</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.3201510423578321</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.069901250286371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.6952691667029965</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.01070253798907151</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2190477534457331</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4397297247479698</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1859640667025111</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.5958704879064489</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.02978541580575079</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>1.07145938453543</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.1915635731277004</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.202205422431639</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.1349050954232282</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.7002716822966059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.1333333447538664</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4438597939536266</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.50316878995576</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1304458140495059</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.5490058934278141</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.08549157261466624</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3941426165818034</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.2510742762983587</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2338811715092033</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1852937587894465</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3748826889696295</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.215797974318139</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.397448563446046</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6482197517735098</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.2008186175259061</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.419660577734658</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.4453683098441859</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.840482355011782</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4980041048607279</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>2.476509935041207</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.8520534902205152</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.8158325708466362</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.1898178205289202</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.369717604677506</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.5994798398196993</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.0574651443845715</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1001128856088518</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4831207720481308</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3837453944646323</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3932043651576559</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.09393285305413887</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.726363464849662</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.4777676764069719</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1521653848376432</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.004484637151572509</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.6066233150789513</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.04943592111659925</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3770008967887466</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2996098133750447</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.08083399070690199</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.06063162103635743</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.04120824183105468</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1326031921037302</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.3373783673602371</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1312242021588509</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.08747658378968068</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1508992277085556</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.3102926833074379</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.394836403286988</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2860268221888699</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1771756605427309</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.059520030207685</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8420668605635633</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9037121323969831</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3826110948746282</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.248269037681207</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.8901914497191082</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4693923373128724</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.210083463138495</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.971446326457429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
